--- a/data/negative_signals/Indirectly connected (A-X-B) - Ferrous sulfate - Acute myocardial infarction.xlsx
+++ b/data/negative_signals/Indirectly connected (A-X-B) - Ferrous sulfate - Acute myocardial infarction.xlsx
@@ -164,10 +164,10 @@
     <t>tier12TripleInformation/9/predicateName</t>
   </si>
   <si>
-    <t>2992895</t>
-  </si>
-  <si>
-    <t>eisensulfat stada</t>
+    <t>131802</t>
+  </si>
+  <si>
+    <t>eisendragees-ratiopharm</t>
   </si>
   <si>
     <t>Chemicals &amp; Drugs</t>
@@ -191,37 +191,172 @@
     <t>Disorders</t>
   </si>
   <si>
-    <t>85491132</t>
+    <t>17445436</t>
   </si>
   <si>
     <t>inhibits</t>
   </si>
   <si>
-    <t>94829180</t>
+    <t>28457037</t>
+  </si>
+  <si>
+    <t>gene product is biomarker type</t>
+  </si>
+  <si>
+    <t>28457039</t>
   </si>
   <si>
     <t>gene product variant causes</t>
   </si>
   <si>
-    <t>94829177</t>
-  </si>
-  <si>
-    <t>gene product is biomarker type</t>
-  </si>
-  <si>
     <t>1053692</t>
   </si>
   <si>
     <t>pon1 (homo sapiens)</t>
   </si>
   <si>
-    <t>84132528</t>
-  </si>
-  <si>
-    <t>94837465</t>
-  </si>
-  <si>
-    <t>94837467</t>
+    <t>19399701</t>
+  </si>
+  <si>
+    <t>28472700</t>
+  </si>
+  <si>
+    <t>28472701</t>
+  </si>
+  <si>
+    <t>2476543</t>
+  </si>
+  <si>
+    <t>tnf (homo sapiens)</t>
+  </si>
+  <si>
+    <t>19215364</t>
+  </si>
+  <si>
+    <t>19351556</t>
+  </si>
+  <si>
+    <t>affects</t>
+  </si>
+  <si>
+    <t>17544502</t>
+  </si>
+  <si>
+    <t>stimulates</t>
+  </si>
+  <si>
+    <t>28148591</t>
+  </si>
+  <si>
+    <t>28148589</t>
+  </si>
+  <si>
+    <t>2791012</t>
+  </si>
+  <si>
+    <t>tlr4 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>18893289</t>
+  </si>
+  <si>
+    <t>28496737</t>
+  </si>
+  <si>
+    <t>90839982</t>
+  </si>
+  <si>
+    <t>is associated with</t>
+  </si>
+  <si>
+    <t>97898498</t>
+  </si>
+  <si>
+    <t>is not associated with</t>
+  </si>
+  <si>
+    <t>90840391</t>
+  </si>
+  <si>
+    <t>predisposes</t>
+  </si>
+  <si>
+    <t>28496736</t>
+  </si>
+  <si>
+    <t>2791205</t>
+  </si>
+  <si>
+    <t>tlr2 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>21778800</t>
+  </si>
+  <si>
+    <t>28459747</t>
+  </si>
+  <si>
+    <t>28459749</t>
+  </si>
+  <si>
+    <t>2786023</t>
+  </si>
+  <si>
+    <t>il1b (homo sapiens)</t>
+  </si>
+  <si>
+    <t>17458473</t>
+  </si>
+  <si>
+    <t>28593110</t>
+  </si>
+  <si>
+    <t>1569957</t>
+  </si>
+  <si>
+    <t>crp (homo sapiens)</t>
+  </si>
+  <si>
+    <t>18998575</t>
+  </si>
+  <si>
+    <t>28275256</t>
+  </si>
+  <si>
+    <t>28275260</t>
+  </si>
+  <si>
+    <t>111931</t>
+  </si>
+  <si>
+    <t>iron</t>
+  </si>
+  <si>
+    <t>17824281</t>
+  </si>
+  <si>
+    <t>85611333</t>
+  </si>
+  <si>
+    <t>68897018</t>
+  </si>
+  <si>
+    <t>treats</t>
+  </si>
+  <si>
+    <t>72535072</t>
+  </si>
+  <si>
+    <t>400566</t>
+  </si>
+  <si>
+    <t>chromium</t>
+  </si>
+  <si>
+    <t>22261634</t>
+  </si>
+  <si>
+    <t>125278048</t>
   </si>
   <si>
     <t>5058792</t>
@@ -230,70 +365,52 @@
     <t>ascorbic acid</t>
   </si>
   <si>
-    <t>84133273</t>
-  </si>
-  <si>
-    <t>84022217</t>
-  </si>
-  <si>
-    <t>affects</t>
-  </si>
-  <si>
-    <t>83439905</t>
-  </si>
-  <si>
-    <t>stimulates</t>
-  </si>
-  <si>
-    <t>124734767</t>
-  </si>
-  <si>
-    <t>is associated with</t>
-  </si>
-  <si>
-    <t>198370889</t>
+    <t>17458592</t>
+  </si>
+  <si>
+    <t>18482827</t>
+  </si>
+  <si>
+    <t>19400927</t>
+  </si>
+  <si>
+    <t>58365158</t>
+  </si>
+  <si>
+    <t>132163711</t>
   </si>
   <si>
     <t>prevents</t>
   </si>
   <si>
-    <t>150239867</t>
+    <t>94699575</t>
+  </si>
+  <si>
+    <t>83860048</t>
   </si>
   <si>
     <t>causes</t>
   </si>
   <si>
-    <t>160890412</t>
-  </si>
-  <si>
-    <t>treats</t>
-  </si>
-  <si>
-    <t>150239775</t>
-  </si>
-  <si>
-    <t>predisposes</t>
-  </si>
-  <si>
-    <t>2476543</t>
-  </si>
-  <si>
-    <t>tnf (homo sapiens)</t>
-  </si>
-  <si>
-    <t>83872580</t>
-  </si>
-  <si>
-    <t>83512526</t>
-  </si>
-  <si>
-    <t>83329105</t>
-  </si>
-  <si>
-    <t>94507799</t>
-  </si>
-  <si>
-    <t>94507797</t>
+    <t>83859980</t>
+  </si>
+  <si>
+    <t>2792317</t>
+  </si>
+  <si>
+    <t>il6 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>20695158</t>
+  </si>
+  <si>
+    <t>28386818</t>
+  </si>
+  <si>
+    <t>28386815</t>
+  </si>
+  <si>
+    <t>121787463</t>
   </si>
   <si>
     <t>2792087</t>
@@ -302,112 +419,13 @@
     <t>cxcl8 (homo sapiens)</t>
   </si>
   <si>
-    <t>85194385</t>
-  </si>
-  <si>
-    <t>90120681</t>
-  </si>
-  <si>
-    <t>94944542</t>
-  </si>
-  <si>
-    <t>2791205</t>
-  </si>
-  <si>
-    <t>tlr2 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>87614633</t>
-  </si>
-  <si>
-    <t>94830264</t>
-  </si>
-  <si>
-    <t>94830262</t>
-  </si>
-  <si>
-    <t>2786023</t>
-  </si>
-  <si>
-    <t>il1b (homo sapiens)</t>
-  </si>
-  <si>
-    <t>83439767</t>
-  </si>
-  <si>
-    <t>94944535</t>
-  </si>
-  <si>
-    <t>2791012</t>
-  </si>
-  <si>
-    <t>tlr4 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>84499516</t>
-  </si>
-  <si>
-    <t>157007883</t>
-  </si>
-  <si>
-    <t>164018707</t>
-  </si>
-  <si>
-    <t>is not associated with</t>
-  </si>
-  <si>
-    <t>94601066</t>
-  </si>
-  <si>
-    <t>157007554</t>
-  </si>
-  <si>
-    <t>94601072</t>
-  </si>
-  <si>
-    <t>1569957</t>
-  </si>
-  <si>
-    <t>crp (homo sapiens)</t>
-  </si>
-  <si>
-    <t>84311882</t>
-  </si>
-  <si>
-    <t>94655877</t>
-  </si>
-  <si>
-    <t>94655878</t>
-  </si>
-  <si>
-    <t>111931</t>
-  </si>
-  <si>
-    <t>iron</t>
-  </si>
-  <si>
-    <t>89294519</t>
-  </si>
-  <si>
-    <t>151990189</t>
-  </si>
-  <si>
-    <t>138947048</t>
-  </si>
-  <si>
-    <t>135344944</t>
-  </si>
-  <si>
-    <t>400566</t>
-  </si>
-  <si>
-    <t>chromium</t>
-  </si>
-  <si>
-    <t>88375201</t>
-  </si>
-  <si>
-    <t>191486786</t>
+    <t>19477659</t>
+  </si>
+  <si>
+    <t>18131581</t>
+  </si>
+  <si>
+    <t>28593117</t>
   </si>
   <si>
     <t>45119</t>
@@ -416,58 +434,40 @@
     <t>inflammation</t>
   </si>
   <si>
-    <t>82057199</t>
+    <t>15850170</t>
   </si>
   <si>
     <t>indicates</t>
   </si>
   <si>
-    <t>125721784</t>
+    <t>56203089</t>
+  </si>
+  <si>
+    <t>76849999</t>
+  </si>
+  <si>
+    <t>51527607</t>
+  </si>
+  <si>
+    <t>70329667</t>
+  </si>
+  <si>
+    <t>59298984</t>
   </si>
   <si>
     <t>coexists with</t>
   </si>
   <si>
-    <t>131302364</t>
-  </si>
-  <si>
-    <t>143284141</t>
-  </si>
-  <si>
-    <t>122588166</t>
-  </si>
-  <si>
-    <t>122799970</t>
+    <t>56413322</t>
   </si>
   <si>
     <t>precedes</t>
   </si>
   <si>
-    <t>136742806</t>
-  </si>
-  <si>
-    <t>117742245</t>
-  </si>
-  <si>
-    <t>135677718</t>
-  </si>
-  <si>
-    <t>2792317</t>
-  </si>
-  <si>
-    <t>il6 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>85951017</t>
-  </si>
-  <si>
-    <t>94773730</t>
-  </si>
-  <si>
-    <t>188001809</t>
-  </si>
-  <si>
-    <t>94773732</t>
+    <t>64909051</t>
+  </si>
+  <si>
+    <t>69241970</t>
   </si>
   <si>
     <t>2827154</t>
@@ -476,10 +476,10 @@
     <t>selplg (homo sapiens)</t>
   </si>
   <si>
-    <t>86895732</t>
-  </si>
-  <si>
-    <t>94944869</t>
+    <t>20658930</t>
+  </si>
+  <si>
+    <t>28593505</t>
   </si>
   <si>
     <t>2792390</t>
@@ -488,10 +488,10 @@
     <t>ccl21 (homo sapiens)</t>
   </si>
   <si>
-    <t>84550112</t>
-  </si>
-  <si>
-    <t>94944826</t>
+    <t>18316440</t>
+  </si>
+  <si>
+    <t>28593465</t>
   </si>
   <si>
     <t>2790758</t>
@@ -500,22 +500,22 @@
     <t>mapk3 (homo sapiens)</t>
   </si>
   <si>
-    <t>84195865</t>
-  </si>
-  <si>
-    <t>84036950</t>
-  </si>
-  <si>
-    <t>84771808</t>
-  </si>
-  <si>
-    <t>88456678</t>
+    <t>20234146</t>
+  </si>
+  <si>
+    <t>18780776</t>
+  </si>
+  <si>
+    <t>22469781</t>
   </si>
   <si>
     <t>is tributary of</t>
   </si>
   <si>
-    <t>196105792</t>
+    <t>19452643</t>
+  </si>
+  <si>
+    <t>129901982</t>
   </si>
   <si>
     <t>augments</t>
@@ -527,16 +527,16 @@
     <t>lta (homo sapiens)</t>
   </si>
   <si>
-    <t>90573124</t>
-  </si>
-  <si>
-    <t>86511163</t>
-  </si>
-  <si>
-    <t>94829440</t>
-  </si>
-  <si>
-    <t>94829439</t>
+    <t>20306776</t>
+  </si>
+  <si>
+    <t>18231549</t>
+  </si>
+  <si>
+    <t>28458924</t>
+  </si>
+  <si>
+    <t>28458925</t>
   </si>
   <si>
     <t>2230455</t>
@@ -545,13 +545,13 @@
     <t>f2 (homo sapiens)</t>
   </si>
   <si>
-    <t>84895708</t>
-  </si>
-  <si>
-    <t>94763348</t>
-  </si>
-  <si>
-    <t>94763346</t>
+    <t>19910124</t>
+  </si>
+  <si>
+    <t>28384255</t>
+  </si>
+  <si>
+    <t>28384253</t>
   </si>
   <si>
     <t>2059740</t>
@@ -560,10 +560,10 @@
     <t>f10 (homo sapiens)</t>
   </si>
   <si>
-    <t>85471408</t>
-  </si>
-  <si>
-    <t>94944381</t>
+    <t>19487139</t>
+  </si>
+  <si>
+    <t>28592870</t>
   </si>
   <si>
     <t>1660122</t>
@@ -572,10 +572,10 @@
     <t>klk1 (homo sapiens)</t>
   </si>
   <si>
-    <t>88686954</t>
-  </si>
-  <si>
-    <t>94944592</t>
+    <t>22902221</t>
+  </si>
+  <si>
+    <t>28593196</t>
   </si>
   <si>
     <t>432075</t>
@@ -584,22 +584,22 @@
     <t>anemia</t>
   </si>
   <si>
-    <t>82056948</t>
-  </si>
-  <si>
-    <t>160368493</t>
-  </si>
-  <si>
-    <t>158020955</t>
-  </si>
-  <si>
-    <t>175196055</t>
-  </si>
-  <si>
-    <t>142383381</t>
-  </si>
-  <si>
-    <t>124354062</t>
+    <t>15849938</t>
+  </si>
+  <si>
+    <t>94173573</t>
+  </si>
+  <si>
+    <t>57910591</t>
+  </si>
+  <si>
+    <t>75996533</t>
+  </si>
+  <si>
+    <t>108972122</t>
+  </si>
+  <si>
+    <t>91790382</t>
   </si>
   <si>
     <t>836316</t>
@@ -608,10 +608,10 @@
     <t>blood coagulation disorders</t>
   </si>
   <si>
-    <t>82057049</t>
-  </si>
-  <si>
-    <t>189426565</t>
+    <t>15850015</t>
+  </si>
+  <si>
+    <t>123211844</t>
   </si>
   <si>
     <t>2792072</t>
@@ -620,10 +620,37 @@
     <t>cxcr2 (homo sapiens)</t>
   </si>
   <si>
-    <t>85315664</t>
-  </si>
-  <si>
-    <t>198521888</t>
+    <t>19160126</t>
+  </si>
+  <si>
+    <t>132331931</t>
+  </si>
+  <si>
+    <t>6127587</t>
+  </si>
+  <si>
+    <t>arachidonic acid</t>
+  </si>
+  <si>
+    <t>18482306</t>
+  </si>
+  <si>
+    <t>74284930</t>
+  </si>
+  <si>
+    <t>125750934</t>
+  </si>
+  <si>
+    <t>4034062</t>
+  </si>
+  <si>
+    <t>docosahexaenoic acids</t>
+  </si>
+  <si>
+    <t>21368762</t>
+  </si>
+  <si>
+    <t>76319654</t>
   </si>
   <si>
     <t>4028538</t>
@@ -632,40 +659,13 @@
     <t>linoleic acid</t>
   </si>
   <si>
-    <t>88624973</t>
-  </si>
-  <si>
-    <t>171992643</t>
-  </si>
-  <si>
-    <t>171992195</t>
-  </si>
-  <si>
-    <t>6127587</t>
-  </si>
-  <si>
-    <t>arachidonic acid</t>
-  </si>
-  <si>
-    <t>84021830</t>
-  </si>
-  <si>
-    <t>191961666</t>
-  </si>
-  <si>
-    <t>140749529</t>
-  </si>
-  <si>
-    <t>4034062</t>
-  </si>
-  <si>
-    <t>docosahexaenoic acids</t>
-  </si>
-  <si>
-    <t>87157717</t>
-  </si>
-  <si>
-    <t>142756354</t>
+    <t>23008738</t>
+  </si>
+  <si>
+    <t>105886038</t>
+  </si>
+  <si>
+    <t>105885506</t>
   </si>
 </sst>
 </file>
@@ -959,18 +959,18 @@
         <v>68</v>
       </c>
       <c r="N3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
         <v>69</v>
       </c>
       <c r="P3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>133.0</v>
+        <v>117.0</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -988,7 +988,7 @@
         <v>71</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
         <v>56</v>
@@ -1021,36 +1021,18 @@
         <v>77</v>
       </c>
       <c r="R4" t="s">
+        <v>64</v>
+      </c>
+      <c r="S4" t="s">
         <v>78</v>
       </c>
-      <c r="S4" t="s">
-        <v>79</v>
-      </c>
       <c r="T4" t="s">
-        <v>80</v>
-      </c>
-      <c r="U4" t="s">
-        <v>81</v>
-      </c>
-      <c r="V4" t="s">
-        <v>82</v>
-      </c>
-      <c r="W4" t="s">
-        <v>83</v>
-      </c>
-      <c r="X4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>117.0</v>
+        <v>78.0</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -1062,10 +1044,10 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
         <v>55</v>
@@ -1080,34 +1062,40 @@
         <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="L5" t="s">
         <v>76</v>
       </c>
       <c r="M5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="O5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="Q5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="R5" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T5" t="s">
+        <v>88</v>
+      </c>
+      <c r="U5" t="s">
+        <v>89</v>
+      </c>
+      <c r="V5" t="s">
         <v>62</v>
-      </c>
-      <c r="S5" t="s">
-        <v>93</v>
-      </c>
-      <c r="T5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -1124,10 +1112,10 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
         <v>55</v>
@@ -1142,19 +1130,19 @@
         <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="M6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="O6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P6" t="s">
         <v>64</v>
@@ -1174,10 +1162,10 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
         <v>55</v>
@@ -1192,27 +1180,21 @@
         <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
         <v>76</v>
       </c>
       <c r="M7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N7" t="s">
         <v>62</v>
       </c>
-      <c r="O7" t="s">
-        <v>103</v>
-      </c>
-      <c r="P7" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>73.0</v>
+        <v>45.0</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
@@ -1224,10 +1206,10 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
         <v>55</v>
@@ -1242,21 +1224,27 @@
         <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="M8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8" t="s">
+        <v>103</v>
+      </c>
+      <c r="P8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>70.0</v>
+        <v>39.0</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
@@ -1268,13 +1256,13 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
         <v>56</v>
@@ -1286,45 +1274,33 @@
         <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
         <v>76</v>
       </c>
       <c r="M9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="N9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="Q9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="R9" t="s">
-        <v>64</v>
-      </c>
-      <c r="S9" t="s">
-        <v>115</v>
-      </c>
-      <c r="T9" t="s">
-        <v>78</v>
-      </c>
-      <c r="U9" t="s">
-        <v>116</v>
-      </c>
-      <c r="V9" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>45.0</v>
+        <v>37.0</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
@@ -1336,13 +1312,13 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
         <v>56</v>
@@ -1354,27 +1330,21 @@
         <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
       </c>
       <c r="M10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="N10" t="s">
-        <v>64</v>
-      </c>
-      <c r="O10" t="s">
-        <v>121</v>
-      </c>
-      <c r="P10" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>38.0</v>
+        <v>33.0</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -1386,10 +1356,10 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
         <v>52</v>
@@ -1404,33 +1374,57 @@
         <v>58</v>
       </c>
       <c r="K11" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="L11" t="s">
         <v>76</v>
       </c>
       <c r="M11" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="N11" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="O11" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="P11" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="Q11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R11" t="s">
         <v>84</v>
       </c>
+      <c r="S11" t="s">
+        <v>121</v>
+      </c>
+      <c r="T11" t="s">
+        <v>122</v>
+      </c>
+      <c r="U11" t="s">
+        <v>123</v>
+      </c>
+      <c r="V11" t="s">
+        <v>109</v>
+      </c>
+      <c r="W11" t="s">
+        <v>124</v>
+      </c>
+      <c r="X11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>37.0</v>
+        <v>30.0</v>
       </c>
       <c r="B12" t="s">
         <v>50</v>
@@ -1442,39 +1436,51 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" t="s">
         <v>128</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" t="s">
         <v>129</v>
-      </c>
-      <c r="G12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" t="s">
-        <v>58</v>
-      </c>
-      <c r="K12" t="s">
-        <v>130</v>
       </c>
       <c r="L12" t="s">
         <v>60</v>
       </c>
       <c r="M12" t="s">
+        <v>130</v>
+      </c>
+      <c r="N12" t="s">
+        <v>64</v>
+      </c>
+      <c r="O12" t="s">
         <v>131</v>
       </c>
-      <c r="N12" t="s">
-        <v>86</v>
+      <c r="P12" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>132</v>
+      </c>
+      <c r="R12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
@@ -1486,13 +1492,13 @@
         <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
         <v>56</v>
@@ -1504,63 +1510,27 @@
         <v>58</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="M13" t="s">
         <v>136</v>
       </c>
       <c r="N13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O13" t="s">
         <v>137</v>
       </c>
-      <c r="O13" t="s">
-        <v>138</v>
-      </c>
       <c r="P13" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>139</v>
-      </c>
-      <c r="R13" t="s">
-        <v>82</v>
-      </c>
-      <c r="S13" t="s">
-        <v>140</v>
-      </c>
-      <c r="T13" t="s">
-        <v>86</v>
-      </c>
-      <c r="U13" t="s">
-        <v>141</v>
-      </c>
-      <c r="V13" t="s">
-        <v>142</v>
-      </c>
-      <c r="W13" t="s">
-        <v>143</v>
-      </c>
-      <c r="X13" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>145</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
       <c r="B14" t="s">
         <v>50</v>
@@ -1572,46 +1542,76 @@
         <v>52</v>
       </c>
       <c r="E14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" t="s">
+        <v>140</v>
+      </c>
+      <c r="L14" t="s">
+        <v>141</v>
+      </c>
+      <c r="M14" t="s">
+        <v>142</v>
+      </c>
+      <c r="N14" t="s">
+        <v>88</v>
+      </c>
+      <c r="O14" t="s">
+        <v>143</v>
+      </c>
+      <c r="P14" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>144</v>
+      </c>
+      <c r="R14" t="s">
+        <v>74</v>
+      </c>
+      <c r="S14" t="s">
+        <v>145</v>
+      </c>
+      <c r="T14" t="s">
+        <v>125</v>
+      </c>
+      <c r="U14" t="s">
         <v>146</v>
       </c>
-      <c r="F14" t="s">
+      <c r="V14" t="s">
         <v>147</v>
       </c>
-      <c r="G14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" t="s">
-        <v>58</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="W14" t="s">
         <v>148</v>
       </c>
-      <c r="L14" t="s">
-        <v>60</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="X14" t="s">
         <v>149</v>
       </c>
-      <c r="N14" t="s">
-        <v>64</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="Y14" t="s">
         <v>150</v>
       </c>
-      <c r="P14" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" t="s">
+      <c r="Z14" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA14" t="s">
         <v>151</v>
       </c>
-      <c r="R14" t="s">
-        <v>62</v>
+      <c r="AB14" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15">
@@ -1655,7 +1655,7 @@
         <v>155</v>
       </c>
       <c r="N15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16">
@@ -1699,7 +1699,7 @@
         <v>159</v>
       </c>
       <c r="N16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17">
@@ -1737,7 +1737,7 @@
         <v>162</v>
       </c>
       <c r="L17" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="M17" t="s">
         <v>163</v>
@@ -1749,13 +1749,13 @@
         <v>164</v>
       </c>
       <c r="P17" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="Q17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="R17" t="s">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="S17" t="s">
         <v>167</v>
@@ -1799,13 +1799,13 @@
         <v>171</v>
       </c>
       <c r="L18" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="M18" t="s">
         <v>172</v>
       </c>
       <c r="N18" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="O18" t="s">
         <v>173</v>
@@ -1861,13 +1861,13 @@
         <v>178</v>
       </c>
       <c r="N19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O19" t="s">
         <v>179</v>
       </c>
       <c r="P19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
@@ -1911,7 +1911,7 @@
         <v>183</v>
       </c>
       <c r="N20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21">
@@ -1955,12 +1955,12 @@
         <v>187</v>
       </c>
       <c r="N21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="B22" t="s">
         <v>50</v>
@@ -1993,37 +1993,37 @@
         <v>190</v>
       </c>
       <c r="L22" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="M22" t="s">
         <v>191</v>
       </c>
       <c r="N22" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="O22" t="s">
         <v>192</v>
       </c>
       <c r="P22" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="Q22" t="s">
         <v>193</v>
       </c>
       <c r="R22" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="S22" t="s">
         <v>194</v>
       </c>
       <c r="T22" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="U22" t="s">
         <v>195</v>
       </c>
       <c r="V22" t="s">
-        <v>74</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23">
@@ -2061,7 +2061,7 @@
         <v>198</v>
       </c>
       <c r="L23" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M23" t="s">
         <v>199</v>
@@ -2111,12 +2111,12 @@
         <v>203</v>
       </c>
       <c r="N24" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
@@ -2155,13 +2155,13 @@
         <v>207</v>
       </c>
       <c r="N25" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="O25" t="s">
         <v>208</v>
       </c>
       <c r="P25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26">
@@ -2205,13 +2205,7 @@
         <v>212</v>
       </c>
       <c r="N26" t="s">
-        <v>86</v>
-      </c>
-      <c r="O26" t="s">
-        <v>213</v>
-      </c>
-      <c r="P26" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27">
@@ -2228,34 +2222,40 @@
         <v>52</v>
       </c>
       <c r="E27" t="s">
+        <v>213</v>
+      </c>
+      <c r="F27" t="s">
         <v>214</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" t="s">
         <v>215</v>
-      </c>
-      <c r="G27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I27" t="s">
-        <v>57</v>
-      </c>
-      <c r="J27" t="s">
-        <v>58</v>
-      </c>
-      <c r="K27" t="s">
-        <v>216</v>
       </c>
       <c r="L27" t="s">
         <v>74</v>
       </c>
       <c r="M27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N27" t="s">
         <v>84</v>
+      </c>
+      <c r="O27" t="s">
+        <v>217</v>
+      </c>
+      <c r="P27" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
